--- a/Bradley-Terry Spreadsheet NBA.xlsx
+++ b/Bradley-Terry Spreadsheet NBA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="72">
   <si>
     <t>Team 1</t>
   </si>
@@ -160,67 +160,82 @@
     <t>SOS</t>
   </si>
   <si>
-    <t>25-5</t>
+    <t>29-7</t>
   </si>
   <si>
-    <t>25-6</t>
+    <t>28-8</t>
   </si>
   <si>
-    <t>21-9</t>
+    <t>27-10</t>
   </si>
   <si>
-    <t>19-12</t>
+    <t>25-10</t>
   </si>
   <si>
-    <t>19-10</t>
+    <t>24-14</t>
   </si>
   <si>
-    <t>19-13</t>
+    <t>23-12</t>
   </si>
   <si>
-    <t>15-14</t>
+    <t>23-15</t>
   </si>
   <si>
-    <t>16-15</t>
+    <t>21-16</t>
   </si>
   <si>
-    <t>15-15</t>
+    <t>25-14</t>
+  </si>
+  <si>
+    <t>20-16</t>
+  </si>
+  <si>
+    <t>18-17</t>
+  </si>
+  <si>
+    <t>19-18</t>
+  </si>
+  <si>
+    <t>19-19</t>
   </si>
   <si>
     <t>16-17</t>
   </si>
   <si>
-    <t>15-16</t>
+    <t>18-19</t>
   </si>
   <si>
-    <t>14-15</t>
+    <t>17-20</t>
   </si>
   <si>
-    <t>16-16</t>
+    <t>16-20</t>
   </si>
   <si>
-    <t>13-19</t>
+    <t>16-22</t>
   </si>
   <si>
-    <t>14-17</t>
+    <t>14-22</t>
   </si>
   <si>
-    <t>12-18</t>
+    <t>14-23</t>
   </si>
   <si>
-    <t>11-21</t>
+    <t>14-21</t>
   </si>
   <si>
-    <t>10-19</t>
+    <t>13-23</t>
   </si>
   <si>
-    <t>10-21</t>
+    <t>13-24</t>
   </si>
   <si>
-    <t>6-25</t>
+    <t>10-28</t>
   </si>
   <si>
-    <t>5-25</t>
+    <t>7-28</t>
+  </si>
+  <si>
+    <t>7-31</t>
   </si>
 </sst>
 </file>
@@ -541,11 +556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E463"/>
+  <dimension ref="A1:E551"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7547,6 +7562,1244 @@
       </c>
       <c r="E463" s="1"/>
     </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>23</v>
+      </c>
+      <c r="B464">
+        <v>104</v>
+      </c>
+      <c r="C464" t="s">
+        <v>32</v>
+      </c>
+      <c r="D464">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>17</v>
+      </c>
+      <c r="B465">
+        <v>101</v>
+      </c>
+      <c r="C465" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>19</v>
+      </c>
+      <c r="B466">
+        <v>106</v>
+      </c>
+      <c r="C466" t="s">
+        <v>5</v>
+      </c>
+      <c r="D466">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>29</v>
+      </c>
+      <c r="B467">
+        <v>94</v>
+      </c>
+      <c r="C467" t="s">
+        <v>25</v>
+      </c>
+      <c r="D467">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>34</v>
+      </c>
+      <c r="B468">
+        <v>105</v>
+      </c>
+      <c r="C468" t="s">
+        <v>27</v>
+      </c>
+      <c r="D468">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>19</v>
+      </c>
+      <c r="B469">
+        <v>106</v>
+      </c>
+      <c r="C469" t="s">
+        <v>8</v>
+      </c>
+      <c r="D469">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470">
+        <v>110</v>
+      </c>
+      <c r="C470" t="s">
+        <v>23</v>
+      </c>
+      <c r="D470">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>32</v>
+      </c>
+      <c r="B471">
+        <v>98</v>
+      </c>
+      <c r="C471" t="s">
+        <v>21</v>
+      </c>
+      <c r="D471">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>11</v>
+      </c>
+      <c r="B472">
+        <v>112</v>
+      </c>
+      <c r="C472" t="s">
+        <v>33</v>
+      </c>
+      <c r="D472">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>15</v>
+      </c>
+      <c r="B473">
+        <v>124</v>
+      </c>
+      <c r="C473" t="s">
+        <v>13</v>
+      </c>
+      <c r="D473">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474">
+        <v>102</v>
+      </c>
+      <c r="C474" t="s">
+        <v>31</v>
+      </c>
+      <c r="D474">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>9</v>
+      </c>
+      <c r="B475">
+        <v>115</v>
+      </c>
+      <c r="C475" t="s">
+        <v>29</v>
+      </c>
+      <c r="D475">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>25</v>
+      </c>
+      <c r="B476">
+        <v>101</v>
+      </c>
+      <c r="C476" t="s">
+        <v>30</v>
+      </c>
+      <c r="D476">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>20</v>
+      </c>
+      <c r="B477">
+        <v>116</v>
+      </c>
+      <c r="C477" t="s">
+        <v>26</v>
+      </c>
+      <c r="D477">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478">
+        <v>104</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>24</v>
+      </c>
+      <c r="B479">
+        <v>138</v>
+      </c>
+      <c r="C479" t="s">
+        <v>7</v>
+      </c>
+      <c r="D479">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>32</v>
+      </c>
+      <c r="B480">
+        <v>87</v>
+      </c>
+      <c r="C480" t="s">
+        <v>13</v>
+      </c>
+      <c r="D480">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>12</v>
+      </c>
+      <c r="B481">
+        <v>113</v>
+      </c>
+      <c r="C481" t="s">
+        <v>5</v>
+      </c>
+      <c r="D481">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>6</v>
+      </c>
+      <c r="B482">
+        <v>116</v>
+      </c>
+      <c r="C482" t="s">
+        <v>30</v>
+      </c>
+      <c r="D482">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483">
+        <v>122</v>
+      </c>
+      <c r="C483" t="s">
+        <v>7</v>
+      </c>
+      <c r="D483">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>31</v>
+      </c>
+      <c r="B484">
+        <v>116</v>
+      </c>
+      <c r="C484" t="s">
+        <v>26</v>
+      </c>
+      <c r="D484">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>23</v>
+      </c>
+      <c r="B485">
+        <v>83</v>
+      </c>
+      <c r="C485" t="s">
+        <v>33</v>
+      </c>
+      <c r="D485">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>16</v>
+      </c>
+      <c r="B486">
+        <v>99</v>
+      </c>
+      <c r="C486" t="s">
+        <v>17</v>
+      </c>
+      <c r="D486">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>18</v>
+      </c>
+      <c r="B487">
+        <v>127</v>
+      </c>
+      <c r="C487" t="s">
+        <v>27</v>
+      </c>
+      <c r="D487">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>21</v>
+      </c>
+      <c r="B488">
+        <v>117</v>
+      </c>
+      <c r="C488" t="s">
+        <v>15</v>
+      </c>
+      <c r="D488">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>22</v>
+      </c>
+      <c r="B489">
+        <v>112</v>
+      </c>
+      <c r="C489" t="s">
+        <v>25</v>
+      </c>
+      <c r="D489">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>11</v>
+      </c>
+      <c r="B490">
+        <v>109</v>
+      </c>
+      <c r="C490" t="s">
+        <v>24</v>
+      </c>
+      <c r="D490">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491">
+        <v>105</v>
+      </c>
+      <c r="C491" t="s">
+        <v>10</v>
+      </c>
+      <c r="D491">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>29</v>
+      </c>
+      <c r="B492">
+        <v>103</v>
+      </c>
+      <c r="C492" t="s">
+        <v>34</v>
+      </c>
+      <c r="D492">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>19</v>
+      </c>
+      <c r="B493">
+        <v>99</v>
+      </c>
+      <c r="C493" t="s">
+        <v>9</v>
+      </c>
+      <c r="D493">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494">
+        <v>130</v>
+      </c>
+      <c r="C494" t="s">
+        <v>32</v>
+      </c>
+      <c r="D494">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>12</v>
+      </c>
+      <c r="B495">
+        <v>103</v>
+      </c>
+      <c r="C495" t="s">
+        <v>20</v>
+      </c>
+      <c r="D495">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>26</v>
+      </c>
+      <c r="B496">
+        <v>110</v>
+      </c>
+      <c r="C496" t="s">
+        <v>24</v>
+      </c>
+      <c r="D496">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>18</v>
+      </c>
+      <c r="B497">
+        <v>114</v>
+      </c>
+      <c r="C497" t="s">
+        <v>30</v>
+      </c>
+      <c r="D497">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>31</v>
+      </c>
+      <c r="B498">
+        <v>132</v>
+      </c>
+      <c r="C498" t="s">
+        <v>28</v>
+      </c>
+      <c r="D498">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499">
+        <v>124</v>
+      </c>
+      <c r="C499" t="s">
+        <v>34</v>
+      </c>
+      <c r="D499">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500">
+        <v>127</v>
+      </c>
+      <c r="C500" t="s">
+        <v>23</v>
+      </c>
+      <c r="D500">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>15</v>
+      </c>
+      <c r="B501">
+        <v>112</v>
+      </c>
+      <c r="C501" t="s">
+        <v>33</v>
+      </c>
+      <c r="D501">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>21</v>
+      </c>
+      <c r="B502">
+        <v>114</v>
+      </c>
+      <c r="C502" t="s">
+        <v>16</v>
+      </c>
+      <c r="D502">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B503">
+        <v>132</v>
+      </c>
+      <c r="C503" t="s">
+        <v>19</v>
+      </c>
+      <c r="D503">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>13</v>
+      </c>
+      <c r="B504">
+        <v>96</v>
+      </c>
+      <c r="C504" t="s">
+        <v>20</v>
+      </c>
+      <c r="D504">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>17</v>
+      </c>
+      <c r="B505">
+        <v>104</v>
+      </c>
+      <c r="C505" t="s">
+        <v>22</v>
+      </c>
+      <c r="D505">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>29</v>
+      </c>
+      <c r="B506">
+        <v>89</v>
+      </c>
+      <c r="C506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>25</v>
+      </c>
+      <c r="B507">
+        <v>111</v>
+      </c>
+      <c r="C507" t="s">
+        <v>27</v>
+      </c>
+      <c r="D507">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>13</v>
+      </c>
+      <c r="B508">
+        <v>94</v>
+      </c>
+      <c r="C508" t="s">
+        <v>11</v>
+      </c>
+      <c r="D508">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>9</v>
+      </c>
+      <c r="B509">
+        <v>116</v>
+      </c>
+      <c r="C509" t="s">
+        <v>8</v>
+      </c>
+      <c r="D509">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>34</v>
+      </c>
+      <c r="B510">
+        <v>91</v>
+      </c>
+      <c r="C510" t="s">
+        <v>12</v>
+      </c>
+      <c r="D510">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>32</v>
+      </c>
+      <c r="B511">
+        <v>117</v>
+      </c>
+      <c r="C511" t="s">
+        <v>10</v>
+      </c>
+      <c r="D511">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512">
+        <v>99</v>
+      </c>
+      <c r="C512" t="s">
+        <v>18</v>
+      </c>
+      <c r="D512">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>25</v>
+      </c>
+      <c r="B513">
+        <v>97</v>
+      </c>
+      <c r="C513" t="s">
+        <v>30</v>
+      </c>
+      <c r="D513">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>26</v>
+      </c>
+      <c r="B514">
+        <v>120</v>
+      </c>
+      <c r="C514" t="s">
+        <v>28</v>
+      </c>
+      <c r="D514">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>31</v>
+      </c>
+      <c r="B515">
+        <v>94</v>
+      </c>
+      <c r="C515" t="s">
+        <v>27</v>
+      </c>
+      <c r="D515">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>21</v>
+      </c>
+      <c r="B516">
+        <v>110</v>
+      </c>
+      <c r="C516" t="s">
+        <v>4</v>
+      </c>
+      <c r="D516">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517">
+        <v>136</v>
+      </c>
+      <c r="C517" t="s">
+        <v>23</v>
+      </c>
+      <c r="D517">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>17</v>
+      </c>
+      <c r="B518">
+        <v>93</v>
+      </c>
+      <c r="C518" t="s">
+        <v>15</v>
+      </c>
+      <c r="D518">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>30</v>
+      </c>
+      <c r="B519">
+        <v>108</v>
+      </c>
+      <c r="C519" t="s">
+        <v>12</v>
+      </c>
+      <c r="D519">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>10</v>
+      </c>
+      <c r="B520">
+        <v>108</v>
+      </c>
+      <c r="C520" t="s">
+        <v>8</v>
+      </c>
+      <c r="D520">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>31</v>
+      </c>
+      <c r="B521">
+        <v>112</v>
+      </c>
+      <c r="C521" t="s">
+        <v>27</v>
+      </c>
+      <c r="D521">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>33</v>
+      </c>
+      <c r="B522">
+        <v>120</v>
+      </c>
+      <c r="C522" t="s">
+        <v>19</v>
+      </c>
+      <c r="D522">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>32</v>
+      </c>
+      <c r="B523">
+        <v>121</v>
+      </c>
+      <c r="C523" t="s">
+        <v>17</v>
+      </c>
+      <c r="D523">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>34</v>
+      </c>
+      <c r="B524">
+        <v>108</v>
+      </c>
+      <c r="C524" t="s">
+        <v>16</v>
+      </c>
+      <c r="D524">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>24</v>
+      </c>
+      <c r="B525">
+        <v>105</v>
+      </c>
+      <c r="C525" t="s">
+        <v>18</v>
+      </c>
+      <c r="D525">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>13</v>
+      </c>
+      <c r="B526">
+        <v>80</v>
+      </c>
+      <c r="C526" t="s">
+        <v>25</v>
+      </c>
+      <c r="D526">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>20</v>
+      </c>
+      <c r="B527">
+        <v>108</v>
+      </c>
+      <c r="C527" t="s">
+        <v>26</v>
+      </c>
+      <c r="D527">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>28</v>
+      </c>
+      <c r="B528">
+        <v>106</v>
+      </c>
+      <c r="C528" t="s">
+        <v>7</v>
+      </c>
+      <c r="D528">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>22</v>
+      </c>
+      <c r="B529">
+        <v>113</v>
+      </c>
+      <c r="C529" t="s">
+        <v>5</v>
+      </c>
+      <c r="D529">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>24</v>
+      </c>
+      <c r="B530">
+        <v>116</v>
+      </c>
+      <c r="C530" t="s">
+        <v>11</v>
+      </c>
+      <c r="D530">
+        <v>117</v>
+      </c>
+      <c r="E530" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>10</v>
+      </c>
+      <c r="B531">
+        <v>120</v>
+      </c>
+      <c r="C531" t="s">
+        <v>15</v>
+      </c>
+      <c r="D531">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>34</v>
+      </c>
+      <c r="B532">
+        <v>120</v>
+      </c>
+      <c r="C532" t="s">
+        <v>4</v>
+      </c>
+      <c r="D532">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>29</v>
+      </c>
+      <c r="B533">
+        <v>124</v>
+      </c>
+      <c r="C533" t="s">
+        <v>19</v>
+      </c>
+      <c r="D533">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>6</v>
+      </c>
+      <c r="B534">
+        <v>123</v>
+      </c>
+      <c r="C534" t="s">
+        <v>26</v>
+      </c>
+      <c r="D534">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>13</v>
+      </c>
+      <c r="B535">
+        <v>105</v>
+      </c>
+      <c r="C535" t="s">
+        <v>16</v>
+      </c>
+      <c r="D535">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>23</v>
+      </c>
+      <c r="B536">
+        <v>111</v>
+      </c>
+      <c r="C536" t="s">
+        <v>12</v>
+      </c>
+      <c r="D536">
+        <v>116</v>
+      </c>
+      <c r="E536" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>8</v>
+      </c>
+      <c r="B537">
+        <v>104</v>
+      </c>
+      <c r="C537" t="s">
+        <v>17</v>
+      </c>
+      <c r="D537">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>33</v>
+      </c>
+      <c r="B538">
+        <v>113</v>
+      </c>
+      <c r="C538" t="s">
+        <v>27</v>
+      </c>
+      <c r="D538">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>30</v>
+      </c>
+      <c r="B539">
+        <v>133</v>
+      </c>
+      <c r="C539" t="s">
+        <v>9</v>
+      </c>
+      <c r="D539">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>31</v>
+      </c>
+      <c r="B540">
+        <v>95</v>
+      </c>
+      <c r="C540" t="s">
+        <v>25</v>
+      </c>
+      <c r="D540">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>20</v>
+      </c>
+      <c r="B541">
+        <v>103</v>
+      </c>
+      <c r="C541" t="s">
+        <v>7</v>
+      </c>
+      <c r="D541">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>19</v>
+      </c>
+      <c r="B542">
+        <v>113</v>
+      </c>
+      <c r="C542" t="s">
+        <v>21</v>
+      </c>
+      <c r="D542">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>9</v>
+      </c>
+      <c r="B543">
+        <v>121</v>
+      </c>
+      <c r="C543" t="s">
+        <v>15</v>
+      </c>
+      <c r="D543">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544">
+        <v>118</v>
+      </c>
+      <c r="C544" t="s">
+        <v>4</v>
+      </c>
+      <c r="D544">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>23</v>
+      </c>
+      <c r="B545">
+        <v>98</v>
+      </c>
+      <c r="C545" t="s">
+        <v>10</v>
+      </c>
+      <c r="D545">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>11</v>
+      </c>
+      <c r="B546">
+        <v>115</v>
+      </c>
+      <c r="C546" t="s">
+        <v>5</v>
+      </c>
+      <c r="D546">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>26</v>
+      </c>
+      <c r="B547">
+        <v>115</v>
+      </c>
+      <c r="C547" t="s">
+        <v>22</v>
+      </c>
+      <c r="D547">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>29</v>
+      </c>
+      <c r="B548">
+        <v>89</v>
+      </c>
+      <c r="C548" t="s">
+        <v>31</v>
+      </c>
+      <c r="D548">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>33</v>
+      </c>
+      <c r="B549">
+        <v>108</v>
+      </c>
+      <c r="C549" t="s">
+        <v>6</v>
+      </c>
+      <c r="D549">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>32</v>
+      </c>
+      <c r="B550">
+        <v>131</v>
+      </c>
+      <c r="C550" t="s">
+        <v>28</v>
+      </c>
+      <c r="D550">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>20</v>
+      </c>
+      <c r="B551">
+        <v>122</v>
+      </c>
+      <c r="C551" t="s">
+        <v>34</v>
+      </c>
+      <c r="D551">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7558,10 +8811,10 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" bestFit="1" customWidth="1"/>
@@ -7607,10 +8860,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>547.21542250541438</v>
+        <v>477.81221139157549</v>
       </c>
       <c r="D2">
         <f>RANK(F2,F2:F31)</f>
@@ -7620,17 +8873,17 @@
         <v>46</v>
       </c>
       <c r="F2">
-        <v>0.83333333333333337</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="H2">
         <f>RANK(I2,I2:I31)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>109.44308450108289</v>
+        <v>115.3339820600355</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7638,10 +8891,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>439.46399594015088</v>
+        <v>379.8892969249369</v>
       </c>
       <c r="D3">
         <f>RANK(F3,F2:F31)</f>
@@ -7651,17 +8904,17 @@
         <v>47</v>
       </c>
       <c r="F3">
-        <v>0.80645161290322576</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G3">
-        <v>4.166666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
         <f>RANK(I3,I2:I31)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>105.4713590256362</v>
+        <v>108.5397991214105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -7669,10 +8922,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>218.70747759013139</v>
+        <v>257.64416891644157</v>
       </c>
       <c r="D4">
         <f>RANK(F4,F2:F31)</f>
@@ -7682,17 +8935,17 @@
         <v>48</v>
       </c>
       <c r="F4">
-        <v>0.7</v>
+        <v>0.72972972972972971</v>
       </c>
       <c r="G4">
-        <v>2.333333333333333</v>
+        <v>2.7</v>
       </c>
       <c r="H4">
         <f>RANK(I4,I2:I31)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4">
-        <v>93.73177611005633</v>
+        <v>95.423766265348746</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -7700,30 +8953,30 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>211.31238830702989</v>
+        <v>229.12663917581361</v>
       </c>
       <c r="D5">
         <f>RANK(F5,F2:F31)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G5">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="H5">
         <f>RANK(I5,I2:I31)</f>
         <v>26</v>
       </c>
       <c r="I5">
-        <v>90.562452131584223</v>
+        <v>91.650655670325449</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -7731,30 +8984,30 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>193.0245863864649</v>
+        <v>188.77512027958869</v>
       </c>
       <c r="D6">
         <f>RANK(F6,F2:F31)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6">
-        <v>0.61290322580645162</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="G6">
-        <v>1.583333333333333</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="H6">
         <f>RANK(I6,I2:I31)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>121.9102650861884</v>
+        <v>110.1188201630934</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -7762,30 +9015,30 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>183.5112354032579</v>
+        <v>182.2873564485707</v>
       </c>
       <c r="D7">
         <f>RANK(F7,F2:F31)</f>
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7">
-        <v>0.65517241379310343</v>
+        <v>0.65714285714285714</v>
       </c>
       <c r="G7">
-        <v>1.9</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="H7">
         <f>RANK(I7,I2:I31)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7">
-        <v>96.584860738556785</v>
+        <v>95.106446842732538</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -7793,30 +9046,30 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>149.78080364382211</v>
+        <v>149.28983008726249</v>
       </c>
       <c r="D8">
         <f>RANK(F8,F2:F31)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8">
-        <v>0.59375</v>
+        <v>0.60526315789473684</v>
       </c>
       <c r="G8">
-        <v>1.461538461538461</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="H8">
         <f>RANK(I8,I2:I31)</f>
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>102.48160249314149</v>
+        <v>97.362932665605939</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -7824,30 +9077,30 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>144.8653679051975</v>
+        <v>146.40437836381389</v>
       </c>
       <c r="D9">
         <f>RANK(F9,F2:F31)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9">
-        <v>0.59375</v>
+        <v>0.56756756756756754</v>
       </c>
       <c r="G9">
-        <v>1.461538461538461</v>
+        <v>1.3125</v>
       </c>
       <c r="H9">
         <f>RANK(I9,I2:I31)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>99.11840961934567</v>
+        <v>111.54619303909629</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -7858,27 +9111,27 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>121.2775668204</v>
+        <v>132.41666897340079</v>
       </c>
       <c r="D10">
         <f>RANK(F10,F2:F31)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F10">
-        <v>0.59375</v>
+        <v>0.64102564102564108</v>
       </c>
       <c r="G10">
-        <v>1.461538461538461</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H10">
         <f>RANK(I10,I2:I31)</f>
         <v>30</v>
       </c>
       <c r="I10">
-        <v>82.979387824484206</v>
+        <v>74.153334625104449</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -7886,30 +9139,30 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>115.8104957715379</v>
+        <v>130.62050731988941</v>
       </c>
       <c r="D11">
         <f>RANK(F11,F2:F31)</f>
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F11">
-        <v>0.51724137931034486</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G11">
-        <v>1.071428571428571</v>
+        <v>1.25</v>
       </c>
       <c r="H11">
         <f>RANK(I11,I2:I31)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>108.08979605343541</v>
+        <v>104.4964058559115</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -7917,30 +9170,30 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C12">
-        <v>109.2510600840579</v>
+        <v>111.25339183170919</v>
       </c>
       <c r="D12">
         <f>RANK(F12,F2:F31)</f>
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12">
-        <v>0.5161290322580645</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="G12">
-        <v>1.0666666666666671</v>
+        <v>1.0588235294117649</v>
       </c>
       <c r="H12">
         <f>RANK(I12,I2:I31)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12">
-        <v>102.4228688288043</v>
+        <v>105.0726478410587</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -7951,27 +9204,27 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>107.0075943514944</v>
+        <v>109.725774947196</v>
       </c>
       <c r="D13">
         <f>RANK(F13,F2:F31)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F13">
-        <v>0.5161290322580645</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="G13">
-        <v>1.0666666666666671</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="H13">
         <f>RANK(I13,I2:I31)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I13">
-        <v>100.319619704526</v>
+        <v>103.9507341605015</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -7979,30 +9232,30 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14">
-        <v>104.3944803264788</v>
+        <v>105.463103752859</v>
       </c>
       <c r="D14">
         <f>RANK(F14,F2:F31)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F14">
-        <v>0.5161290322580645</v>
+        <v>0.51351351351351349</v>
       </c>
       <c r="G14">
-        <v>1.0666666666666671</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="H14">
         <f>RANK(I14,I2:I31)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I14">
-        <v>97.869825306073849</v>
+        <v>99.912414081655925</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -8010,17 +9263,17 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>102.3017538924264</v>
+        <v>105.1548785323285</v>
       </c>
       <c r="D15">
         <f>RANK(F15,F2:F31)</f>
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F15">
         <v>0.5</v>
@@ -8030,10 +9283,10 @@
       </c>
       <c r="H15">
         <f>RANK(I15,I2:I31)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>102.3017538924264</v>
+        <v>105.1548785323285</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -8041,30 +9294,30 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C16">
-        <v>101.224333890194</v>
+        <v>101.6908896563521</v>
       </c>
       <c r="D16">
         <f>RANK(F16,F2:F31)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F16">
-        <v>0.48484848484848492</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.94117647058823528</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <f>RANK(I16,I2:I31)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="I16">
-        <v>107.5508547583312</v>
+        <v>101.6908896563521</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -8072,30 +9325,30 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>99.760662957636853</v>
+        <v>100.9804015823448</v>
       </c>
       <c r="D17">
         <f>RANK(F17,F2:F31)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17">
-        <v>0.4838709677419355</v>
+        <v>0.48484848484848492</v>
       </c>
       <c r="G17">
-        <v>0.9375</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="H17">
         <f>RANK(I17,I2:I31)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I17">
-        <v>106.4113738214793</v>
+        <v>107.2916766812413</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -8103,30 +9356,30 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>97.093611846738796</v>
+        <v>100.08766786232771</v>
       </c>
       <c r="D18">
         <f>RANK(F18,F2:F31)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F18">
-        <v>0.48275862068965519</v>
+        <v>0.48648648648648651</v>
       </c>
       <c r="G18">
-        <v>0.93333333333333335</v>
+        <v>0.94736842105263153</v>
       </c>
       <c r="H18">
         <f>RANK(I18,I2:I31)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>104.0288698357916</v>
+        <v>105.6480938546793</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -8134,30 +9387,30 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>96.955065568351586</v>
+        <v>90.355328396157105</v>
       </c>
       <c r="D19">
         <f>RANK(F19,F2:F31)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19">
-        <v>0.4838709677419355</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f>RANK(I19,I2:I31)</f>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I19">
-        <v>103.41873660624169</v>
+        <v>90.355328396157105</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -8165,30 +9418,30 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>93.519660262796904</v>
+        <v>89.732217664777536</v>
       </c>
       <c r="D20">
         <f>RANK(F20,F2:F31)</f>
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>0.48275862068965519</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="G20">
-        <v>0.93333333333333335</v>
+        <v>0.85</v>
       </c>
       <c r="H20">
         <f>RANK(I20,I2:I31)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>100.1996359958538</v>
+        <v>105.56731489973831</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -8196,30 +9449,30 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>90.064512349460514</v>
+        <v>79.396252968677913</v>
       </c>
       <c r="D21">
         <f>RANK(F21,F2:F31)</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H21">
         <f>RANK(I21,I2:I31)</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I21">
-        <v>90.064512349460514</v>
+        <v>99.245316210847392</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -8227,30 +9480,30 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>80.76816440597031</v>
+        <v>78.101358966981763</v>
       </c>
       <c r="D22">
         <f>RANK(F22,F2:F31)</f>
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F22">
-        <v>0.40625</v>
+        <v>0.42105263157894729</v>
       </c>
       <c r="G22">
-        <v>0.68421052631578949</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="H22">
         <f>RANK(I22,I2:I31)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>118.0457787471874</v>
+        <v>107.3893685795999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -8258,30 +9511,30 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>73.276316819309045</v>
+        <v>75.329684207287485</v>
       </c>
       <c r="D23">
         <f>RANK(F23,F2:F31)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F23">
-        <v>0.45161290322580638</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G23">
-        <v>0.82352941176470584</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="H23">
         <f>RANK(I23,I2:I31)</f>
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>88.978384709160991</v>
+        <v>118.3752180400232</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -8289,30 +9542,30 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>71.445961228802773</v>
+        <v>72.053589208063286</v>
       </c>
       <c r="D24">
         <f>RANK(F24,F2:F31)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24">
-        <v>0.40625</v>
+        <v>0.45945945945945948</v>
       </c>
       <c r="G24">
-        <v>0.68421052631578949</v>
+        <v>0.85</v>
       </c>
       <c r="H24">
         <f>RANK(I24,I2:I31)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I24">
-        <v>104.421020257481</v>
+        <v>84.76892848007445</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -8323,27 +9576,27 @@
         <v>8</v>
       </c>
       <c r="C25">
-        <v>66.217417696641775</v>
+        <v>61.579797150150497</v>
       </c>
       <c r="D25">
         <f>RANK(F25,F2:F31)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F25">
-        <v>0.40625</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="G25">
-        <v>0.68421052631578949</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="H25">
         <f>RANK(I25,I2:I31)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I25">
-        <v>96.779302787399516</v>
+        <v>101.16680960381871</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -8354,14 +9607,14 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>64.400319745495423</v>
+        <v>61.188993443923778</v>
       </c>
       <c r="D26">
         <f>RANK(F26,F2:F31)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>0.4</v>
@@ -8371,10 +9624,10 @@
       </c>
       <c r="H26">
         <f>RANK(I26,I2:I31)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>96.600479618243142</v>
+        <v>91.783490165885667</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -8382,30 +9635,30 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>51.626478762785602</v>
+        <v>54.083135097274443</v>
       </c>
       <c r="D27">
         <f>RANK(F27,F2:F31)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F27">
-        <v>0.34375</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="G27">
-        <v>0.52380952380952384</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="H27">
         <f>RANK(I27,I2:I31)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I27">
-        <v>98.559641274408861</v>
+        <v>95.685546710562477</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -8413,30 +9666,30 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>48.041683408871982</v>
+        <v>52.948145901605223</v>
       </c>
       <c r="D28">
         <f>RANK(F28,F2:F31)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F28">
-        <v>0.34482758620689657</v>
+        <v>0.35135135135135143</v>
       </c>
       <c r="G28">
-        <v>0.52631578947368418</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H28">
         <f>RANK(I28,I2:I31)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I28">
-        <v>91.279198476856763</v>
+        <v>97.750423202963475</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -8447,27 +9700,27 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>42.706627091301662</v>
+        <v>32.993235592096887</v>
       </c>
       <c r="D29">
         <f>RANK(F29,F2:F31)</f>
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F29">
-        <v>0.32258064516129031</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="G29">
-        <v>0.47619047619047622</v>
+        <v>0.35714285714285721</v>
       </c>
       <c r="H29">
         <f>RANK(I29,I2:I31)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I29">
-        <v>89.683916891733503</v>
+        <v>92.381059657871305</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -8475,30 +9728,30 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>23.68310319417829</v>
+        <v>22.821864073292939</v>
       </c>
       <c r="D30">
         <f>RANK(F30,F2:F31)</f>
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F30">
-        <v>0.19354838709677419</v>
+        <v>0.2</v>
       </c>
       <c r="G30">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H30">
         <f>RANK(I30,I2:I31)</f>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I30">
-        <v>98.679596642409564</v>
+        <v>91.287456293171743</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -8506,30 +9759,30 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <v>18.796420854443308</v>
+        <v>22.30781793468153</v>
       </c>
       <c r="D31">
         <f>RANK(F31,F2:F31)</f>
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F31">
-        <v>0.16666666666666671</v>
+        <v>0.18421052631578949</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0.22580645161290319</v>
       </c>
       <c r="H31">
         <f>RANK(I31,I2:I31)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I31">
-        <v>93.98210427221656</v>
+        <v>98.791765139303905</v>
       </c>
     </row>
   </sheetData>
